--- a/par_puits/delta_table.xlsx
+++ b/par_puits/delta_table.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,31 +477,27 @@
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>PD</t>
         </is>
       </c>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Ieq</t>
-        </is>
-      </c>
+      <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="n"/>
       <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Ieq</t>
+        </is>
+      </c>
       <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Iraw</t>
-        </is>
-      </c>
+      <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
       <c r="W1" s="1" t="n"/>
@@ -509,7 +505,7 @@
       <c r="Y1" s="1" t="n"/>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>Iraw</t>
         </is>
       </c>
       <c r="AA1" s="1" t="n"/>
@@ -517,6 +513,20 @@
       <c r="AC1" s="1" t="n"/>
       <c r="AD1" s="1" t="n"/>
       <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -556,122 +566,172 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>ΔFsk + ΔVX770</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>ΔFsk + ΔVX770 + ΔApi</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
           <t>ΔAmi</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>ΔFsk/IBMX</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>ΔVX770</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>ΔApi</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>ΔInh</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>ΔATP</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>ΔFsk + ΔVX770</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>ΔFsk + ΔVX770 + ΔApi</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>ΔAmi</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>ΔFsk/IBMX</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>ΔVX770</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
         <is>
           <t>ΔApi</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>ΔInh</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>ΔATP</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>ΔFsk + ΔVX770</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>ΔFsk + ΔVX770 + ΔApi</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>ΔAmi</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>ΔFsk/IBMX</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>ΔVX770</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>ΔApi</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>ΔInh</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>ΔATP</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>ΔFsk + ΔVX770</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>ΔFsk + ΔVX770 + ΔApi</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
         <is>
           <t>ΔAmi</t>
         </is>
       </c>
-      <c r="AA2" s="1" t="inlineStr">
+      <c r="AI2" s="1" t="inlineStr">
         <is>
           <t>ΔFsk/IBMX</t>
         </is>
       </c>
-      <c r="AB2" s="1" t="inlineStr">
+      <c r="AJ2" s="1" t="inlineStr">
         <is>
           <t>ΔVX770</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
+      <c r="AK2" s="1" t="inlineStr">
         <is>
           <t>ΔApi</t>
         </is>
       </c>
-      <c r="AD2" s="1" t="inlineStr">
+      <c r="AL2" s="1" t="inlineStr">
         <is>
           <t>ΔInh</t>
         </is>
       </c>
-      <c r="AE2" s="1" t="inlineStr">
+      <c r="AM2" s="1" t="inlineStr">
         <is>
           <t>ΔATP</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>ΔFsk + ΔVX770</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>ΔFsk + ΔVX770 + ΔApi</t>
         </is>
       </c>
     </row>
@@ -700,76 +760,106 @@
         <v>-0.016</v>
       </c>
       <c r="H4" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J4" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I4" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R4" t="n">
         <v>86.84</v>
       </c>
-      <c r="O4" t="n">
+      <c r="S4" t="n">
         <v>2.04</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="U4" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
         <v>0.3</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T4" t="n">
+      <c r="X4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z4" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AA4" t="n">
         <v>0.44</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AB4" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AC4" t="n">
         <v>0.92</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AD4" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AE4" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AF4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH4" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AI4" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AJ4" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AK4" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AL4" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AM4" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="5">
@@ -797,76 +887,106 @@
         <v>-0.016</v>
       </c>
       <c r="H5" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J5" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I5" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R5" t="n">
         <v>86.84</v>
       </c>
-      <c r="O5" t="n">
+      <c r="S5" t="n">
         <v>2.04</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="U5" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
         <v>0.3</v>
       </c>
-      <c r="S5" t="n">
+      <c r="W5" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T5" t="n">
+      <c r="X5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z5" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AA5" t="n">
         <v>0.44</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AB5" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AC5" t="n">
         <v>0.92</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AD5" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AE5" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AF5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH5" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AI5" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AJ5" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AK5" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AL5" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AM5" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="6">
@@ -894,76 +1014,106 @@
         <v>-0.016</v>
       </c>
       <c r="H6" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J6" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I6" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R6" t="n">
         <v>86.84</v>
       </c>
-      <c r="O6" t="n">
+      <c r="S6" t="n">
         <v>2.04</v>
       </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="U6" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R6" t="n">
+      <c r="V6" t="n">
         <v>0.3</v>
       </c>
-      <c r="S6" t="n">
+      <c r="W6" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T6" t="n">
+      <c r="X6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z6" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AA6" t="n">
         <v>0.44</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AB6" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AC6" t="n">
         <v>0.92</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AD6" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AE6" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AF6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH6" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AI6" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AJ6" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AK6" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AL6" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AM6" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="7">
@@ -991,76 +1141,106 @@
         <v>-0.016</v>
       </c>
       <c r="H7" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J7" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I7" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R7" t="n">
         <v>86.84</v>
       </c>
-      <c r="O7" t="n">
+      <c r="S7" t="n">
         <v>2.04</v>
       </c>
-      <c r="P7" t="n">
+      <c r="T7" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="U7" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R7" t="n">
+      <c r="V7" t="n">
         <v>0.3</v>
       </c>
-      <c r="S7" t="n">
+      <c r="W7" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T7" t="n">
+      <c r="X7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z7" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AA7" t="n">
         <v>0.44</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AB7" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AC7" t="n">
         <v>0.92</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AD7" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AE7" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AF7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH7" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AI7" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AJ7" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AK7" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AL7" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AM7" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="8">
@@ -1088,76 +1268,106 @@
         <v>-0.016</v>
       </c>
       <c r="H8" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J8" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I8" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R8" t="n">
         <v>86.84</v>
       </c>
-      <c r="O8" t="n">
+      <c r="S8" t="n">
         <v>2.04</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="U8" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R8" t="n">
+      <c r="V8" t="n">
         <v>0.3</v>
       </c>
-      <c r="S8" t="n">
+      <c r="W8" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T8" t="n">
+      <c r="X8" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z8" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AA8" t="n">
         <v>0.44</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AB8" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AC8" t="n">
         <v>0.92</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AD8" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AE8" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AF8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH8" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AI8" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AJ8" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AK8" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AL8" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AM8" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="9">
@@ -1185,76 +1395,106 @@
         <v>-0.016</v>
       </c>
       <c r="H9" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J9" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I9" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R9" t="n">
         <v>86.84</v>
       </c>
-      <c r="O9" t="n">
+      <c r="S9" t="n">
         <v>2.04</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="U9" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R9" t="n">
+      <c r="V9" t="n">
         <v>0.3</v>
       </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T9" t="n">
+      <c r="X9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z9" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AA9" t="n">
         <v>0.44</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AB9" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AC9" t="n">
         <v>0.92</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AD9" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AE9" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AF9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH9" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AI9" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AJ9" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AK9" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AL9" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AM9" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="10">
@@ -1282,76 +1522,106 @@
         <v>-0.016</v>
       </c>
       <c r="H10" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J10" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I10" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R10" t="n">
         <v>86.84</v>
       </c>
-      <c r="O10" t="n">
+      <c r="S10" t="n">
         <v>2.04</v>
       </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="U10" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R10" t="n">
+      <c r="V10" t="n">
         <v>0.3</v>
       </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T10" t="n">
+      <c r="X10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z10" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AA10" t="n">
         <v>0.44</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AB10" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AC10" t="n">
         <v>0.92</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AD10" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AE10" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AF10" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH10" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AI10" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AJ10" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AK10" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AL10" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AM10" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="11">
@@ -1379,76 +1649,106 @@
         <v>-0.016</v>
       </c>
       <c r="H11" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J11" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I11" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R11" t="n">
         <v>86.84</v>
       </c>
-      <c r="O11" t="n">
+      <c r="S11" t="n">
         <v>2.04</v>
       </c>
-      <c r="P11" t="n">
+      <c r="T11" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="U11" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R11" t="n">
+      <c r="V11" t="n">
         <v>0.3</v>
       </c>
-      <c r="S11" t="n">
+      <c r="W11" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T11" t="n">
+      <c r="X11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z11" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AA11" t="n">
         <v>0.44</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AB11" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AC11" t="n">
         <v>0.92</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AD11" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AE11" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AF11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH11" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AI11" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AJ11" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AK11" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AL11" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AM11" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="12">
@@ -1476,76 +1776,106 @@
         <v>-0.016</v>
       </c>
       <c r="H12" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J12" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I12" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R12" t="n">
         <v>86.84</v>
       </c>
-      <c r="O12" t="n">
+      <c r="S12" t="n">
         <v>2.04</v>
       </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="U12" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R12" t="n">
+      <c r="V12" t="n">
         <v>0.3</v>
       </c>
-      <c r="S12" t="n">
+      <c r="W12" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T12" t="n">
+      <c r="X12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z12" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AA12" t="n">
         <v>0.44</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AB12" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AC12" t="n">
         <v>0.92</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AD12" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AE12" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AF12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH12" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AI12" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AJ12" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AK12" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AL12" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AM12" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="13">
@@ -1573,76 +1903,106 @@
         <v>-0.016</v>
       </c>
       <c r="H13" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J13" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I13" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R13" t="n">
         <v>86.84</v>
       </c>
-      <c r="O13" t="n">
+      <c r="S13" t="n">
         <v>2.04</v>
       </c>
-      <c r="P13" t="n">
+      <c r="T13" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="U13" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R13" t="n">
+      <c r="V13" t="n">
         <v>0.3</v>
       </c>
-      <c r="S13" t="n">
+      <c r="W13" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T13" t="n">
+      <c r="X13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z13" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AA13" t="n">
         <v>0.44</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AB13" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AC13" t="n">
         <v>0.92</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AD13" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AE13" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AF13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH13" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AI13" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AJ13" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AK13" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AL13" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AM13" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="14">
@@ -1670,76 +2030,106 @@
         <v>-0.016</v>
       </c>
       <c r="H14" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J14" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I14" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R14" t="n">
         <v>86.84</v>
       </c>
-      <c r="O14" t="n">
+      <c r="S14" t="n">
         <v>2.04</v>
       </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="U14" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R14" t="n">
+      <c r="V14" t="n">
         <v>0.3</v>
       </c>
-      <c r="S14" t="n">
+      <c r="W14" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T14" t="n">
+      <c r="X14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z14" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AA14" t="n">
         <v>0.44</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AB14" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AC14" t="n">
         <v>0.92</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AD14" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AE14" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AF14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH14" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AI14" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AJ14" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AK14" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AL14" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AM14" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="15">
@@ -1767,76 +2157,106 @@
         <v>-0.016</v>
       </c>
       <c r="H15" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J15" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I15" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R15" t="n">
         <v>86.84</v>
       </c>
-      <c r="O15" t="n">
+      <c r="S15" t="n">
         <v>2.04</v>
       </c>
-      <c r="P15" t="n">
+      <c r="T15" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="U15" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R15" t="n">
+      <c r="V15" t="n">
         <v>0.3</v>
       </c>
-      <c r="S15" t="n">
+      <c r="W15" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T15" t="n">
+      <c r="X15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z15" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AA15" t="n">
         <v>0.44</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AB15" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AC15" t="n">
         <v>0.92</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AD15" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AE15" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AF15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH15" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AI15" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AJ15" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AK15" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AL15" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AM15" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="16">
@@ -1864,76 +2284,106 @@
         <v>-0.016</v>
       </c>
       <c r="H16" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J16" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I16" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R16" t="n">
         <v>86.84</v>
       </c>
-      <c r="O16" t="n">
+      <c r="S16" t="n">
         <v>2.04</v>
       </c>
-      <c r="P16" t="n">
+      <c r="T16" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="U16" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R16" t="n">
+      <c r="V16" t="n">
         <v>0.3</v>
       </c>
-      <c r="S16" t="n">
+      <c r="W16" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T16" t="n">
+      <c r="X16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z16" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AA16" t="n">
         <v>0.44</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AB16" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AC16" t="n">
         <v>0.92</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AD16" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AE16" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AF16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH16" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AI16" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AJ16" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AK16" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AL16" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AM16" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="17">
@@ -1961,76 +2411,106 @@
         <v>-0.016</v>
       </c>
       <c r="H17" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J17" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I17" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R17" t="n">
         <v>86.84</v>
       </c>
-      <c r="O17" t="n">
+      <c r="S17" t="n">
         <v>2.04</v>
       </c>
-      <c r="P17" t="n">
+      <c r="T17" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="U17" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R17" t="n">
+      <c r="V17" t="n">
         <v>0.3</v>
       </c>
-      <c r="S17" t="n">
+      <c r="W17" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T17" t="n">
+      <c r="X17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z17" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AA17" t="n">
         <v>0.44</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AB17" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AC17" t="n">
         <v>0.92</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AD17" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AE17" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AF17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH17" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AI17" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AJ17" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AK17" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AL17" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AM17" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="18">
@@ -2058,76 +2538,106 @@
         <v>-0.016</v>
       </c>
       <c r="H18" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J18" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I18" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R18" t="n">
         <v>86.84</v>
       </c>
-      <c r="O18" t="n">
+      <c r="S18" t="n">
         <v>2.04</v>
       </c>
-      <c r="P18" t="n">
+      <c r="T18" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="U18" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R18" t="n">
+      <c r="V18" t="n">
         <v>0.3</v>
       </c>
-      <c r="S18" t="n">
+      <c r="W18" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T18" t="n">
+      <c r="X18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z18" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AA18" t="n">
         <v>0.44</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AB18" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AC18" t="n">
         <v>0.92</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AD18" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AE18" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AF18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH18" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AI18" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AJ18" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AK18" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AL18" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AM18" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="19">
@@ -2155,76 +2665,106 @@
         <v>-0.016</v>
       </c>
       <c r="H19" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J19" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I19" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R19" t="n">
         <v>86.84</v>
       </c>
-      <c r="O19" t="n">
+      <c r="S19" t="n">
         <v>2.04</v>
       </c>
-      <c r="P19" t="n">
+      <c r="T19" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="U19" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R19" t="n">
+      <c r="V19" t="n">
         <v>0.3</v>
       </c>
-      <c r="S19" t="n">
+      <c r="W19" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T19" t="n">
+      <c r="X19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z19" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AA19" t="n">
         <v>0.44</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AB19" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AC19" t="n">
         <v>0.92</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AD19" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AE19" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AF19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH19" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AI19" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AJ19" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AK19" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AL19" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AM19" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="20">
@@ -2252,76 +2792,106 @@
         <v>-0.016</v>
       </c>
       <c r="H20" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J20" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I20" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R20" t="n">
         <v>86.84</v>
       </c>
-      <c r="O20" t="n">
+      <c r="S20" t="n">
         <v>2.04</v>
       </c>
-      <c r="P20" t="n">
+      <c r="T20" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="U20" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R20" t="n">
+      <c r="V20" t="n">
         <v>0.3</v>
       </c>
-      <c r="S20" t="n">
+      <c r="W20" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T20" t="n">
+      <c r="X20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z20" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AA20" t="n">
         <v>0.44</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AB20" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AC20" t="n">
         <v>0.92</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AD20" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AE20" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AF20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH20" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AI20" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AJ20" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AK20" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AL20" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AM20" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="21">
@@ -2349,76 +2919,106 @@
         <v>-0.016</v>
       </c>
       <c r="H21" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J21" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I21" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R21" t="n">
         <v>86.84</v>
       </c>
-      <c r="O21" t="n">
+      <c r="S21" t="n">
         <v>2.04</v>
       </c>
-      <c r="P21" t="n">
+      <c r="T21" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="U21" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R21" t="n">
+      <c r="V21" t="n">
         <v>0.3</v>
       </c>
-      <c r="S21" t="n">
+      <c r="W21" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T21" t="n">
+      <c r="X21" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z21" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AA21" t="n">
         <v>0.44</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AB21" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AC21" t="n">
         <v>0.92</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AD21" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AE21" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AF21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH21" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AI21" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AJ21" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AK21" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AL21" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AM21" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="22">
@@ -2446,76 +3046,106 @@
         <v>-0.016</v>
       </c>
       <c r="H22" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J22" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I22" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R22" t="n">
         <v>86.84</v>
       </c>
-      <c r="O22" t="n">
+      <c r="S22" t="n">
         <v>2.04</v>
       </c>
-      <c r="P22" t="n">
+      <c r="T22" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="U22" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R22" t="n">
+      <c r="V22" t="n">
         <v>0.3</v>
       </c>
-      <c r="S22" t="n">
+      <c r="W22" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T22" t="n">
+      <c r="X22" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z22" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U22" t="n">
+      <c r="AA22" t="n">
         <v>0.44</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AB22" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AC22" t="n">
         <v>0.92</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AD22" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AE22" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AF22" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH22" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AI22" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AJ22" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AK22" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AL22" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AM22" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="23">
@@ -2543,76 +3173,106 @@
         <v>-0.016</v>
       </c>
       <c r="H23" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J23" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I23" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R23" t="n">
         <v>86.84</v>
       </c>
-      <c r="O23" t="n">
+      <c r="S23" t="n">
         <v>2.04</v>
       </c>
-      <c r="P23" t="n">
+      <c r="T23" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="U23" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R23" t="n">
+      <c r="V23" t="n">
         <v>0.3</v>
       </c>
-      <c r="S23" t="n">
+      <c r="W23" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T23" t="n">
+      <c r="X23" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z23" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U23" t="n">
+      <c r="AA23" t="n">
         <v>0.44</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AB23" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AC23" t="n">
         <v>0.92</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AD23" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AE23" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AF23" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH23" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AI23" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AJ23" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AK23" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AL23" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AM23" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="24">
@@ -2640,76 +3300,106 @@
         <v>-0.016</v>
       </c>
       <c r="H24" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J24" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I24" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R24" t="n">
         <v>86.84</v>
       </c>
-      <c r="O24" t="n">
+      <c r="S24" t="n">
         <v>2.04</v>
       </c>
-      <c r="P24" t="n">
+      <c r="T24" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="U24" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R24" t="n">
+      <c r="V24" t="n">
         <v>0.3</v>
       </c>
-      <c r="S24" t="n">
+      <c r="W24" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T24" t="n">
+      <c r="X24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z24" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U24" t="n">
+      <c r="AA24" t="n">
         <v>0.44</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AB24" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AC24" t="n">
         <v>0.92</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AD24" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AE24" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AF24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH24" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AI24" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AJ24" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AK24" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AL24" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AM24" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="25">
@@ -2737,76 +3427,106 @@
         <v>-0.016</v>
       </c>
       <c r="H25" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J25" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I25" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R25" t="n">
         <v>86.84</v>
       </c>
-      <c r="O25" t="n">
+      <c r="S25" t="n">
         <v>2.04</v>
       </c>
-      <c r="P25" t="n">
+      <c r="T25" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="U25" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R25" t="n">
+      <c r="V25" t="n">
         <v>0.3</v>
       </c>
-      <c r="S25" t="n">
+      <c r="W25" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T25" t="n">
+      <c r="X25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z25" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U25" t="n">
+      <c r="AA25" t="n">
         <v>0.44</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AB25" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AC25" t="n">
         <v>0.92</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AD25" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AE25" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AF25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH25" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AI25" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AJ25" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AK25" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AL25" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AM25" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="26">
@@ -2834,76 +3554,106 @@
         <v>-0.016</v>
       </c>
       <c r="H26" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J26" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I26" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R26" t="n">
         <v>86.84</v>
       </c>
-      <c r="O26" t="n">
+      <c r="S26" t="n">
         <v>2.04</v>
       </c>
-      <c r="P26" t="n">
+      <c r="T26" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="U26" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R26" t="n">
+      <c r="V26" t="n">
         <v>0.3</v>
       </c>
-      <c r="S26" t="n">
+      <c r="W26" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T26" t="n">
+      <c r="X26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z26" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U26" t="n">
+      <c r="AA26" t="n">
         <v>0.44</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AB26" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AC26" t="n">
         <v>0.92</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AD26" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AE26" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AF26" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH26" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AI26" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AJ26" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AK26" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AL26" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AM26" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
     <row r="27">
@@ -2931,85 +3681,115 @@
         <v>-0.016</v>
       </c>
       <c r="H27" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J27" t="n">
         <v>-4.14</v>
       </c>
-      <c r="I27" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R27" t="n">
         <v>86.84</v>
       </c>
-      <c r="O27" t="n">
+      <c r="S27" t="n">
         <v>2.04</v>
       </c>
-      <c r="P27" t="n">
+      <c r="T27" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="U27" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R27" t="n">
+      <c r="V27" t="n">
         <v>0.3</v>
       </c>
-      <c r="S27" t="n">
+      <c r="W27" t="n">
         <v>-0.55</v>
       </c>
-      <c r="T27" t="n">
+      <c r="X27" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Z27" t="n">
         <v>-2.19</v>
       </c>
-      <c r="U27" t="n">
+      <c r="AA27" t="n">
         <v>0.44</v>
       </c>
-      <c r="V27" t="n">
+      <c r="AB27" t="n">
         <v>-0.11</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AC27" t="n">
         <v>0.92</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AD27" t="n">
         <v>1.09</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AE27" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AF27" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH27" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AI27" t="n">
         <v>-4.98</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AJ27" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AK27" t="n">
         <v>1.55</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AL27" t="n">
         <v>19.56</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AM27" t="n">
         <v>-7.26</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>-1.680000000000001</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>-0.1300000000000006</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
